--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -460,6 +460,9 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -866,6 +869,9 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
@@ -976,6 +982,9 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
@@ -1002,6 +1011,9 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
@@ -1021,11 +1033,12 @@
         <v>1.0</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="8" t="s">
-        <v>24</v>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1045,14 +1058,17 @@
         <v>2.5</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
+      <c r="I14" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1072,8 +1088,8 @@
         <v>1.5</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
+      <c r="I15" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>48</v>
@@ -1500,40 +1516,40 @@
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2504,7 +2520,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F29">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I15">
       <formula1>$N$3:$N$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E35">

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
   <si>
     <t>Sprint</t>
   </si>
@@ -115,12 +115,21 @@
     <t>Jyothish</t>
   </si>
   <si>
+    <t>PS-1.8</t>
+  </si>
+  <si>
     <t>Integrate FreeRTOS into the project.</t>
   </si>
   <si>
+    <t>PS-1.9</t>
+  </si>
+  <si>
     <t>Create initialization task and start the scheduler.</t>
   </si>
   <si>
+    <t>PS-1.10</t>
+  </si>
+  <si>
     <t>Debug print framework</t>
   </si>
   <si>
@@ -173,15 +182,6 @@
   </si>
   <si>
     <t>Configure LWIP for DHCP address acquisition.</t>
-  </si>
-  <si>
-    <t>DRV-4.3</t>
-  </si>
-  <si>
-    <t>Implement a basic PING test to verify network connectivity.</t>
-  </si>
-  <si>
-    <t>Debugging check.</t>
   </si>
   <si>
     <t>APP-1.1</t>
@@ -892,6 +892,9 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
@@ -901,17 +904,22 @@
       <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
+      <c r="I7" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -933,10 +941,15 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
@@ -950,10 +963,15 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
@@ -964,10 +982,17 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -979,20 +1004,22 @@
         <v>2.0</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="8">
         <v>1.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
@@ -1015,13 +1042,13 @@
         <v>1.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
@@ -1032,21 +1059,25 @@
       <c r="G13" s="4">
         <v>1.0</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8"/>
+      <c r="A14" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
@@ -1062,7 +1093,7 @@
         <v>24</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1070,13 +1101,13 @@
         <v>1.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
@@ -1088,69 +1119,77 @@
         <v>1.5</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="9" t="s">
-        <v>24</v>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.5</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.0</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="4" t="s">
@@ -2520,7 +2559,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F29">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I17">
       <formula1>$N$3:$N$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E35">

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -913,9 +913,11 @@
       <c r="G7" s="3">
         <v>0.5</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
+      <c r="H7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1004,8 +1006,8 @@
         <v>2.0</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1088,9 +1090,11 @@
       <c r="G14" s="4">
         <v>2.5</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="9" t="s">
-        <v>24</v>
+      <c r="H14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>47</v>
@@ -1118,7 +1122,9 @@
       <c r="G15" s="4">
         <v>1.5</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I15" s="7" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1155,8 @@
         <v>1.5</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
+      <c r="I16" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -1176,8 +1182,8 @@
         <v>1.0</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
+      <c r="I17" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2559,7 +2565,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F29">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I17">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I17 I19:I35">
       <formula1>$N$3:$N$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E35">

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -1154,7 +1154,9 @@
       <c r="G16" s="3">
         <v>1.5</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I16" s="9" t="s">
         <v>15</v>
       </c>

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="117">
   <si>
     <t>Sprint</t>
   </si>
@@ -196,6 +196,18 @@
     <t>APP-1.2</t>
   </si>
   <si>
+    <t>Modbus table creation (documentation)</t>
+  </si>
+  <si>
+    <t>APP-1.3</t>
+  </si>
+  <si>
+    <t>Modbus stack implementation and register mapping</t>
+  </si>
+  <si>
+    <t>APP-1.4</t>
+  </si>
+  <si>
     <t>Map the sensor's raw IDs to the 5 standard system gestures (e.g., ID 8 → Swipe Left).</t>
   </si>
   <si>
@@ -205,7 +217,7 @@
     <t>APP-2</t>
   </si>
   <si>
-    <t>Receive Gesture ID from APP-1.2.</t>
+    <t>Receive Gesture ID from APP-1.4.</t>
   </si>
   <si>
     <t>APP-2.2</t>
@@ -235,12 +247,6 @@
     <t>Handles reconnects.</t>
   </si>
   <si>
-    <t>APP-3.3</t>
-  </si>
-  <si>
-    <t>Implement payload struct: Gesture_ID, Timestamp, Status.</t>
-  </si>
-  <si>
     <t>APP-3.4</t>
   </si>
   <si>
@@ -248,6 +254,12 @@
   </si>
   <si>
     <t>PRD requirement for reliability.</t>
+  </si>
+  <si>
+    <t>ISSUE-1</t>
+  </si>
+  <si>
+    <t>Implement sensor communication with Ethernet enabled</t>
   </si>
   <si>
     <t>APP-4.1</t>
@@ -921,7 +933,9 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -943,7 +957,9 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
@@ -953,9 +969,15 @@
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.5</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
         <v>20</v>
@@ -965,7 +987,9 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8">
+        <v>1.0</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
@@ -975,12 +999,18 @@
       <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.5</v>
+      </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1005,9 +1035,11 @@
       <c r="G11" s="4">
         <v>2.0</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3" t="s">
-        <v>24</v>
+      <c r="H11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1113,7 +1145,7 @@
       <c r="D15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1191,7 +1223,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1209,286 +1241,280 @@
       <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.0</v>
+      </c>
       <c r="H19" s="4">
         <v>1.0</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4">
-        <v>2.0</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4">
-        <v>1.5</v>
-      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4">
-        <v>1.0</v>
-      </c>
+      <c r="E25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="E26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>20</v>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J30" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>20</v>
@@ -1496,113 +1522,173 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J34" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="10" t="s">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="12" t="s">
+      <c r="D37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="13" t="s">
+      <c r="C38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="13" t="s">
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="13" t="s">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="B46" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
@@ -2557,20 +2643,23 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="H2:H6"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F28 F30:F32">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I17 I19:I35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I17 I19:I28 I30:I38">
       <formula1>$N$3:$N$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E28 E30:E38">
       <formula1>$L$8:$L$9</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/Product Backlog.xlsx
+++ b/Documents/Product Backlog.xlsx
@@ -1278,7 +1278,7 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1382,8 +1382,8 @@
         <v>0.5</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>20</v>
+      <c r="I25" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
